--- a/docs/PTA3_ADDC_10_4/PTA3_ADDC_10_4_08.11.2024_output.xlsx
+++ b/docs/PTA3_ADDC_10_4/PTA3_ADDC_10_4_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,296 +505,5636 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1731702030.8768744</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1731702031.992918</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702030.8768744.png</t>
+          <t>1731870151.1018531</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702031.992918.png</t>
+          <t>1731870152.3889153</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731870151.1018531.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870152.3889153.png</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>2759.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2756.25</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K3" t="n">
-        <v>3.550000000000182</v>
+        <v>7148.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0.13</v>
+        <v>7145.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1731702032.3636749</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1731702032.7805598</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702032.3636749.png</t>
+          <t>1731870152.4028778</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702032.7805598.png</t>
+          <t>1731870157.2472167</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731870152.4028778.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870157.2472167.png</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>2749.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2755.9</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K4" t="n">
-        <v>6.300000000000182</v>
+        <v>7145.5</v>
       </c>
       <c r="L4" t="n">
-        <v>0.23</v>
+        <v>7086</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-59.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1731702033.2331753</t>
-        </is>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1731702035.702183</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702033.2331753.png</t>
+          <t>1731870157.5519736</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702035.702183.png</t>
+          <t>1731870159.3669</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>./test_images/LKOH1731870157.5519736.png</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>2749.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2740</v>
+          <t>./test_images/LKOH1731870159.3669.png</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>-9.599999999999909</v>
+        <v>7094.5</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.35</v>
+        <v>7101.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-7</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1731702039.9017339</t>
-        </is>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1731702040.9692812</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702039.9017339.png</t>
+          <t>1731870160.1807754</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702040.9692812.png</t>
+          <t>1731870161.0307055</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/LKOH1731870160.1807754.png</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2754.55</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2746.85</v>
+          <t>./test_images/LKOH1731870161.0307055.png</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>7.700000000000273</v>
+        <v>7100</v>
       </c>
       <c r="L6" t="n">
-        <v>0.28</v>
+        <v>7098</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1731870164.6012638</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1731870165.2854764</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870164.6012638.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870165.2854764.png</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>7088.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7098</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1731870167.4449155</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1731870167.9343808</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870167.4449155.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870167.9343808.png</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>7092.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7096</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1731870168.0205374</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1731870171.534045</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870168.0205374.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870171.534045.png</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>7090</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7074</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-16</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1731870171.6288042</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1731870171.8678935</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870171.6288042.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870171.8678935.png</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>473.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>474.3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.100000000000023</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1731870172.217569</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1731870173.5960846</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870172.217569.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870173.5960846.png</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>474.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>475.3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.8000000000000114</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1731870173.8412092</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1731870173.9524722</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870173.8412092.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870173.9524722.png</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>475.05</v>
+      </c>
+      <c r="L12" t="n">
+        <v>475.2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.1499999999999773</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1731870174.173367</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1731870174.3427436</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870174.173367.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870174.3427436.png</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>475.65</v>
+      </c>
+      <c r="L13" t="n">
+        <v>475.25</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.3999999999999773</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1731870174.3916905</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1731870174.4549358</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870174.3916905.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870174.4549358.png</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>475.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>475.2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.09999999999996589</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1731870174.685752</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1731870175.242198</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870174.685752.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870175.242198.png</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>475.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>475.1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1731870175.9194658</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1731870176.2108362</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870175.9194658.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870176.2108362.png</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>475.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>475.05</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.05000000000001137</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1731870176.3669062</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1731870178.0223074</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870176.3669062.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870178.0223074.png</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>474.8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>474.2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.6000000000000227</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1731870182.3573391</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1731870183.170034</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870182.3573391.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870183.170034.png</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>473.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>473.8</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.4000000000000341</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1731870184.6606371</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1731870186.1730623</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870184.6606371.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870186.1730623.png</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>474.8</v>
+      </c>
+      <c r="L19" t="n">
+        <v>473.9</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.9000000000000341</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1731870188.9915106</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1731870190.9682114</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870188.9915106.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870190.9682114.png</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>475.05</v>
+      </c>
+      <c r="L20" t="n">
+        <v>475.4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.3499999999999659</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1731870191.7037404</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870191.7037404.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>474.6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>474.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1731870193.2835956</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1731870193.5098712</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870193.2835956.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870193.5098712.png</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>932</v>
+      </c>
+      <c r="L22" t="n">
+        <v>933.2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.200000000000045</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1731870194.107316</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1731870194.6795878</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870194.107316.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870194.6795878.png</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>933.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>933</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.3999999999999773</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1731870194.7569983</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1731870194.959246</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870194.7569983.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870194.959246.png</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>933</v>
+      </c>
+      <c r="L24" t="n">
+        <v>934.2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.200000000000045</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1731870194.9732087</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1731870195.0620015</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870194.9732087.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870195.0620015.png</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>934.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>933</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.200000000000045</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1731870195.0769339</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1731870195.230097</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870195.0769339.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870195.230097.png</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>933</v>
+      </c>
+      <c r="L26" t="n">
+        <v>933.6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.6000000000000227</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1731870195.5316699</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1731870196.4265616</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870195.5316699.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870196.4265616.png</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>932.8</v>
+      </c>
+      <c r="L27" t="n">
+        <v>933</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.2000000000000455</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1731870196.5456524</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1731870197.4341173</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870196.5456524.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870197.4341173.png</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>933</v>
+      </c>
+      <c r="L28" t="n">
+        <v>932.4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.6000000000000227</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1731870197.4789977</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1731870200.828608</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870197.4789977.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870200.828608.png</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>932</v>
+      </c>
+      <c r="L29" t="n">
+        <v>930.8</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-1.200000000000045</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1731870203.3357604</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1731870204.8328938</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870203.3357604.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870204.8328938.png</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>930.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>931.4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.199999999999932</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1731870204.847861</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1731870206.7481747</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870204.847861.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870206.7481747.png</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>931.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>931.6</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1731870211.530671</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1731870213.3145692</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870211.530671.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870213.3145692.png</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>931.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>931.2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.1999999999999318</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1731870214.0135238</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1731870214.6607685</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731870214.0135238.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731870214.6607685.png</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>130.26</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.9599999999999795</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1731870217.8955579</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1731870220.1556513</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731870217.8955579.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731870220.1556513.png</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="L34" t="n">
+        <v>129.34</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.2599999999999909</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1731870220.5409927</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1731870220.680686</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731870220.5409927.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731870220.680686.png</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1731870220.984978</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1731870221.2703679</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731870220.984978.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731870221.2703679.png</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="L36" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1731870221.6186783</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1731870221.6615598</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731870221.6186783.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731870221.6615598.png</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>129.64</v>
+      </c>
+      <c r="L37" t="n">
+        <v>129.54</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1731870221.8345149</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1731870222.705346</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731870221.8345149.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731870222.705346.png</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>129.78</v>
+      </c>
+      <c r="L38" t="n">
+        <v>129.56</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.2199999999999989</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1731870223.7360563</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1731870224.3806627</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731870223.7360563.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731870224.3806627.png</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>129.24</v>
+      </c>
+      <c r="L39" t="n">
+        <v>129.56</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.3199999999999932</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1731870225.7571127</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1731870227.538854</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731870225.7571127.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731870227.538854.png</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="L40" t="n">
+        <v>129.74</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1731870230.179195</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1731870232.795911</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731870230.179195.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731870232.795911.png</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>130.26</v>
+      </c>
+      <c r="L41" t="n">
+        <v>130</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.2599999999999909</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1731870235.2243953</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1731870235.398749</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870235.2243953.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870235.398749.png</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>37.86</v>
+      </c>
+      <c r="L42" t="n">
+        <v>37.845</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.01500000000000057</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1731870235.6619635</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1731870237.2972555</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870235.6619635.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870237.2972555.png</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="L43" t="n">
+        <v>37.855</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.04500000000000171</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1731870238.8437743</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1731870241.1398532</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870238.8437743.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870241.1398532.png</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>37.725</v>
+      </c>
+      <c r="L44" t="n">
+        <v>37.81</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.08500000000000085</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1731870242.7592535</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1731870244.597292</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870242.7592535.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870244.597292.png</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>37.925</v>
+      </c>
+      <c r="L45" t="n">
+        <v>37.815</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.1099999999999994</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1731870247.136819</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1731870248.711217</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870247.136819.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870248.711217.png</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>37.99</v>
+      </c>
+      <c r="L46" t="n">
+        <v>37.865</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1731870250.3735065</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1731870252.8749814</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870250.3735065.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870252.8749814.png</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>38.05</v>
+      </c>
+      <c r="L47" t="n">
+        <v>38.02</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.02999999999999403</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1731870253.1064832</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1731870253.3008592</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870253.1064832.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870253.3008592.png</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>37.985</v>
+      </c>
+      <c r="L48" t="n">
+        <v>38.01</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.02499999999999858</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1731870254.8443024</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870254.8443024.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>37.945</v>
+      </c>
+      <c r="L49" t="n">
+        <v>37.975</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1731870256.5764096</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1731870259.745433</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870256.5764096.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870259.745433.png</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1180.8</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1184</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-3.200000000000045</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1731870262.5505085</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1731870262.7949328</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870262.5505085.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870262.7949328.png</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1182.2</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1183.2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1731870263.6037605</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1731870265.2810125</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870263.6037605.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870265.2810125.png</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1186</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1186</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1731870265.478816</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1731870265.5599062</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870265.478816.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870265.5599062.png</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1183.8</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1185</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.200000000000045</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1731870267.7179184</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1731870269.8251529</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870267.7179184.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870269.8251529.png</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1186.8</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1186.2</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.5999999999999091</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1731870270.3935013</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1731870272.9865453</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870270.3935013.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870272.9865453.png</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1191</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1189.2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.799999999999955</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1731870273.982416</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1731870274.8863919</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870273.982416.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870274.8863919.png</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1191.4</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1189.4</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1731870274.9330404</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1731870275.2505002</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870274.9330404.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870275.2505002.png</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1190</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1189.4</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.5999999999999091</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1731870278.695204</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1731870280.5609038</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870278.695204.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870280.5609038.png</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>79.06999999999999</v>
+      </c>
+      <c r="L58" t="n">
+        <v>79.01000000000001</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.05999999999998806</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1731870280.700723</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1731870283.0093029</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870280.700723.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870283.0093029.png</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>78.73999999999999</v>
+      </c>
+      <c r="L59" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.539999999999992</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1731870283.9040506</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1731870285.7456772</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870283.9040506.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870285.7456772.png</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="L60" t="n">
+        <v>78.38</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1731870286.3711991</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1731870287.7080407</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870286.3711991.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870287.7080407.png</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>78.15000000000001</v>
+      </c>
+      <c r="L61" t="n">
+        <v>78.38</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.2299999999999898</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1731870288.1184125</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1731870289.8643599</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870288.1184125.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870289.8643599.png</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>78.48999999999999</v>
+      </c>
+      <c r="L62" t="n">
+        <v>78.34999999999999</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.1400000000000006</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1731870292.2457108</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1731870295.2115705</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870292.2457108.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870295.2115705.png</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>78.65000000000001</v>
+      </c>
+      <c r="L63" t="n">
+        <v>78.53</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1731870296.3178506</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1731870296.5644388</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870296.3178506.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870296.5644388.png</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>78.55</v>
+      </c>
+      <c r="L64" t="n">
+        <v>78.61</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1731870297.3320913</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1731870299.2967594</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870297.3320913.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870299.2967594.png</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>103.28</v>
+      </c>
+      <c r="L65" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.2199999999999989</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1731870300.1839454</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1731870303.7008076</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870300.1839454.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870303.7008076.png</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>103</v>
+      </c>
+      <c r="L66" t="n">
+        <v>102.65</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.3499999999999943</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1731870305.489096</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1731870306.828929</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870305.489096.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870306.828929.png</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>102.62</v>
+      </c>
+      <c r="L67" t="n">
+        <v>102.63</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.009999999999990905</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1731870307.8030238</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1731870308.0416708</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870307.8030238.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870308.0416708.png</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>102.25</v>
+      </c>
+      <c r="L68" t="n">
+        <v>102.76</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.5100000000000051</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1731870309.1226447</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1731870311.206302</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870309.1226447.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870311.206302.png</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>102.87</v>
+      </c>
+      <c r="L69" t="n">
+        <v>102.66</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.210000000000008</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1731870313.480388</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1731870314.472307</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870313.480388.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870314.472307.png</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>103.36</v>
+      </c>
+      <c r="L70" t="n">
+        <v>102.98</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.3799999999999955</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1731870317.4884331</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1731870317.8210886</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870317.4884331.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870317.8210886.png</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>102.69</v>
+      </c>
+      <c r="L71" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.4099999999999966</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1731702045.9953306</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731702045.9953306.png</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1731870319.7089908</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1731870321.1591256</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870319.7089908.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870321.1591256.png</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>2759.8</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2756.25</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3.550000000000182</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1731870321.5969827</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1731870322.1577826</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870321.5969827.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870322.1577826.png</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>2749.6</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2755.9</v>
+      </c>
+      <c r="M73" t="n">
+        <v>6.300000000000182</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1731870322.6868567</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1731870326.2843223</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870322.6868567.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870326.2843223.png</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>2749.6</v>
+      </c>
+      <c r="L74" t="n">
+        <v>2740</v>
+      </c>
+      <c r="M74" t="n">
+        <v>-9.599999999999909</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1731870331.1900449</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1731870332.4741528</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870331.1900449.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870332.4741528.png</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>2754.55</v>
+      </c>
+      <c r="L75" t="n">
+        <v>2746.85</v>
+      </c>
+      <c r="M75" t="n">
+        <v>7.700000000000273</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1731870338.293998</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870338.293998.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>2742.55</v>
       </c>
-      <c r="J7" t="n">
-        <v>2742.55</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="L76" t="n">
+        <v>2744.45</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1.899999999999636</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>APTK</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1731870344.851808</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1731870345.1616037</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731870344.851808.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731870345.1616037.png</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>10.842</v>
+      </c>
+      <c r="L77" t="n">
+        <v>10.858</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.01600000000000001</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>APTK</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1731870349.7596462</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1731870350.2725277</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731870349.7596462.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731870350.2725277.png</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>10.832</v>
+      </c>
+      <c r="L78" t="n">
+        <v>10.856</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.02399999999999913</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>APTK</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1731870353.8086317</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1731870355.7107759</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731870353.8086317.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731870355.7107759.png</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>10.836</v>
+      </c>
+      <c r="L79" t="n">
+        <v>10.856</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.01999999999999957</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>APTK</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1731870357.1206172</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1731870357.6647675</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731870357.1206172.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731870357.6647675.png</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>10.856</v>
+      </c>
+      <c r="L80" t="n">
+        <v>10.842</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.01399999999999935</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>PIKK</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1731870362.0932457</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1731870364.1853273</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>./test_images/PIKK1731870362.0932457.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>./test_images/PIKK1731870364.1853273.png</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>481.9</v>
+      </c>
+      <c r="L81" t="n">
+        <v>481</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.8999999999999773</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>PIKK</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1731870367.2225292</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1731870368.7164752</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>./test_images/PIKK1731870367.2225292.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>./test_images/PIKK1731870368.7164752.png</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>481.9</v>
+      </c>
+      <c r="L82" t="n">
+        <v>481.7</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>PIKK</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1731870371.840347</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1731870376.478702</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>./test_images/PIKK1731870371.840347.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>./test_images/PIKK1731870376.478702.png</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>483.8</v>
+      </c>
+      <c r="L83" t="n">
+        <v>484.2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-0.3999999999999773</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>PIKK</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1731870378.6770246</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>./test_images/PIKK1731870378.6770246.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>483.3</v>
+      </c>
+      <c r="L84" t="n">
+        <v>484.2</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.8999999999999773</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1731870380.8989928</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1731870382.970923</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870380.8989928.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870382.970923.png</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>575.5</v>
+      </c>
+      <c r="L85" t="n">
+        <v>575.8</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-0.2999999999999545</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1731870383.0448263</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1731870383.433201</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870383.0448263.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870383.433201.png</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>575</v>
+      </c>
+      <c r="L86" t="n">
+        <v>576.3</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1.299999999999955</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1731870383.6447673</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1731870383.847858</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870383.6447673.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870383.847858.png</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>575.1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>576.3</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1.199999999999932</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1731870384.3983805</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1731870386.0081885</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870384.3983805.png</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870386.0081885.png</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>575</v>
+      </c>
+      <c r="L88" t="n">
+        <v>574.9</v>
+      </c>
+      <c r="M88" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1731870388.3494115</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1731870390.7495687</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870388.3494115.png</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870390.7495687.png</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>577.8</v>
+      </c>
+      <c r="L89" t="n">
+        <v>577</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1731870392.0071678</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1731870393.776192</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870392.0071678.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870393.776192.png</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>578.9</v>
+      </c>
+      <c r="L90" t="n">
+        <v>580.1</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-1.200000000000045</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1731870394.2622633</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1731870394.4312222</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870394.2622633.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870394.4312222.png</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>580.1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>580.2</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1731870394.4471502</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1731870394.507526</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870394.4471502.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870394.507526.png</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>580.2</v>
+      </c>
+      <c r="L92" t="n">
+        <v>580.1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1731870394.523489</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1731870394.5731084</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870394.523489.png</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870394.5731084.png</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>580.1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>580.2</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1731870394.5893052</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1731870394.6680937</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870394.5893052.png</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870394.6680937.png</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>580.2</v>
+      </c>
+      <c r="L94" t="n">
+        <v>580.3</v>
+      </c>
+      <c r="M94" t="n">
+        <v>-0.09999999999990905</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1731870394.7122347</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1731870394.8856008</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870394.7122347.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870394.8856008.png</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>580.5</v>
+      </c>
+      <c r="L95" t="n">
+        <v>580.1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.3999999999999773</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1731870395.0899246</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1731870395.9527566</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870395.0899246.png</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870395.9527566.png</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>580.9</v>
+      </c>
+      <c r="L96" t="n">
+        <v>580.9</v>
+      </c>
+      <c r="M96" t="n">
         <v>0</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N96" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1731870396.613452</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1731870397.5737703</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870396.613452.png</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870397.5737703.png</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>582.9</v>
+      </c>
+      <c r="L97" t="n">
+        <v>582.6</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.2999999999999545</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1731870397.7692606</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1731870398.3327463</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870397.7692606.png</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870398.3327463.png</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>584</v>
+      </c>
+      <c r="L98" t="n">
+        <v>582.2</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1.799999999999955</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1731870398.8973255</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870398.8973255.png</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>581.7</v>
+      </c>
+      <c r="L99" t="n">
+        <v>575.7</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-1.03</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +6148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,42 +6191,284 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.950000000000728</v>
+        <v>-1.600000000000136</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>1.590000000000146</v>
+        <v>-0.1066666666666758</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2899999999999999</v>
+        <v>-0.26</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2500000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.000000000000114</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4545454545454649</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.959999999999951</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2177777777777724</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.799999999999955</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3499999999999943</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4649999999999963</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05812499999999954</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-68.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-9.785714285714286</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.370000000000019</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1957142857142884</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.09000000000000341</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01285714285714334</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9.850000000000364</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.970000000000073</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3599999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>APTK</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.07399999999999807</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01849999999999952</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>PIKK</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.599999999999966</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
